--- a/config_7.6/act_ty_zp1_config.xlsx
+++ b/config_7.6/act_ty_zp1_config.xlsx
@@ -39,7 +39,7 @@
     <t>gift|对应的工作簿名字</t>
   </si>
   <si>
-    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
+    <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
   </si>
   <si>
     <t>prop_qdlb_cjq</t>
@@ -133,13 +133,25 @@
   </si>
   <si>
     <r>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>"1.</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -148,7 +160,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>活动时间：</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +178,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -175,7 +187,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>29</t>
+      <t>8:00-7</t>
     </r>
     <r>
       <rPr>
@@ -184,7 +196,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日</t>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +205,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>8:00-7</t>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +214,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>日</t>
     </r>
     <r>
       <rPr>
@@ -211,7 +223,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>26</t>
+      <t>23:59:59</t>
     </r>
     <r>
       <rPr>
@@ -220,7 +232,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日</t>
+      <t>。</t>
     </r>
     <r>
       <rPr>
@@ -229,7 +241,8 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>23:59:59</t>
+      <t>",
+"2.</t>
     </r>
     <r>
       <rPr>
@@ -238,7 +251,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
+      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
     </r>
     <r>
       <rPr>
@@ -248,7 +261,7 @@
         <charset val="134"/>
       </rPr>
       <t>",
-"2.</t>
+"3.</t>
     </r>
     <r>
       <rPr>
@@ -257,7 +270,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
+      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
     </r>
     <r>
       <rPr>
@@ -266,30 +279,11 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-"3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111F2C"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
       <t>",</t>
     </r>
   </si>
   <si>
-    <t>act_ty_zp1_004</t>
+    <t>act_ty_zp1_005</t>
   </si>
   <si>
     <t>礼包不限购</t>
@@ -332,10 +326,10 @@
     <t>award_id|奖励ID</t>
   </si>
   <si>
-    <t>xslb_mdkt_1</t>
-  </si>
-  <si>
-    <t>美的空调</t>
+    <t>cjlb_Iphone12_1</t>
+  </si>
+  <si>
+    <t>Iphone12</t>
   </si>
   <si>
     <t>ty_icon_flq1</t>
@@ -729,14 +723,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,14 +752,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,7 +775,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,9 +791,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,11 +810,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -847,22 +844,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -871,10 +852,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -916,175 +910,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,15 +1103,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,35 +1137,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1210,16 +1166,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,16 +1222,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,21 +1243,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,93 +1267,93 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,11 +1403,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1744,7 +1741,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1776,18 +1773,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>8</v>
@@ -1798,8 +1795,8 @@
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="18"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -1818,7 +1815,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1861,10 +1858,10 @@
       <c r="B2" s="20">
         <v>1624924800</v>
       </c>
-      <c r="C2" s="20">
-        <v>1627315199</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="21">
+        <v>1626105599</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -1892,7 +1889,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1939,7 +1936,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="8">
-        <v>12093</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1959,7 +1956,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="8">
-        <v>12088</v>
+        <v>12094</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -1980,7 +1977,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="8">
-        <v>12089</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2000,7 +1997,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="8">
-        <v>12090</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2020,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="8">
-        <v>12091</v>
+        <v>12097</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2040,7 +2037,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="8">
-        <v>12092</v>
+        <v>12098</v>
       </c>
     </row>
   </sheetData>
@@ -2059,7 +2056,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2109,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>10599</v>
+        <v>10605</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>53</v>
@@ -2138,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>10600</v>
+        <v>10606</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>57</v>
@@ -2167,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>10601</v>
+        <v>10607</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>60</v>
@@ -2196,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>10602</v>
+        <v>10608</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>63</v>
@@ -2225,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>10603</v>
+        <v>10609</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>66</v>
@@ -2254,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>10604</v>
+        <v>10610</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>69</v>

--- a/config_7.6/act_ty_zp1_config.xlsx
+++ b/config_7.6/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>"1.</t>
     </r>
     <r>
@@ -684,10 +690,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -723,13 +729,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -743,16 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,9 +764,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,77 +773,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,7 +796,77 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,181 +910,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,6 +1113,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1122,17 +1137,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1168,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,45 +1210,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,138 +1228,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,17 +1406,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1777,7 +1777,7 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1795,8 +1795,8 @@
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="18"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -1814,8 +1814,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1855,13 +1855,13 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
-        <v>1624924800</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="9">
+        <v>1625529600</v>
+      </c>
+      <c r="C2" s="20">
         <v>1626105599</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -2055,7 +2055,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
